--- a/src/bankuai/bankuai_except.xlsx
+++ b/src/bankuai/bankuai_except.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="332">
   <si>
     <t>板块代码</t>
   </si>
@@ -1004,6 +1004,12 @@
   </si>
   <si>
     <t>MSCI概念</t>
+  </si>
+  <si>
+    <t>885867.TI</t>
+  </si>
+  <si>
+    <t>标普道琼斯A股</t>
   </si>
 </sst>
 </file>
@@ -2164,13 +2170,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="29.8461538461538" customWidth="1"/>
@@ -3504,6 +3510,15 @@
         <v>329</v>
       </c>
     </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
